--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-62586-top-by-best-speed.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-62586-top-by-best-speed.xlsx
@@ -50,7 +50,7 @@
     <t>vaihayasa</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 36 сек.</t>
+    <t>1 ч. 09 мин. 36 сек.</t>
   </si>
   <si>
     <t>2</t>
@@ -95,7 +95,7 @@
     <t>maks-</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 37 сек.</t>
+    <t>2 ч. 03 мин. 37 сек.</t>
   </si>
   <si>
     <t>7</t>
@@ -131,7 +131,7 @@
     <t>bolbol</t>
   </si>
   <si>
-    <t>3 ч. 50 мин. 6 сек.</t>
+    <t>3 ч. 50 мин. 06 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -149,7 +149,7 @@
     <t>Speedyman</t>
   </si>
   <si>
-    <t>3 ч. 57 мин. 9 сек.</t>
+    <t>3 ч. 57 мин. 09 сек.</t>
   </si>
   <si>
     <t>13</t>
@@ -194,7 +194,7 @@
     <t>MaestroPain</t>
   </si>
   <si>
-    <t>15 ч. 8 мин. 33 сек.</t>
+    <t>15 ч. 08 мин. 33 сек.</t>
   </si>
   <si>
     <t>18</t>
@@ -221,7 +221,7 @@
     <t>sergiorevazz</t>
   </si>
   <si>
-    <t>0 ч. 20 мин. 0 сек.</t>
+    <t>0 ч. 20 мин. 00 сек.</t>
   </si>
   <si>
     <t>21</t>
@@ -230,7 +230,7 @@
     <t>Chita</t>
   </si>
   <si>
-    <t>4 ч. 46 мин. 3 сек.</t>
+    <t>4 ч. 46 мин. 03 сек.</t>
   </si>
   <si>
     <t>22</t>
@@ -266,7 +266,7 @@
     <t>sorax</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 0 сек.</t>
+    <t>2 ч. 03 мин. 00 сек.</t>
   </si>
   <si>
     <t>26</t>
@@ -311,7 +311,7 @@
     <t>topkek</t>
   </si>
   <si>
-    <t>1 ч. 48 мин. 4 сек.</t>
+    <t>1 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>M87</t>
@@ -353,7 +353,7 @@
     <t>Zikting</t>
   </si>
   <si>
-    <t>4 ч. 39 мин. 1 сек.</t>
+    <t>4 ч. 39 мин. 01 сек.</t>
   </si>
   <si>
     <t>36</t>
@@ -362,7 +362,7 @@
     <t>darkneon</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 15 сек.</t>
+    <t>2 ч. 05 мин. 15 сек.</t>
   </si>
   <si>
     <t>37</t>
@@ -395,7 +395,7 @@
     <t>IG3000</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 56 сек.</t>
+    <t>1 ч. 02 мин. 56 сек.</t>
   </si>
   <si>
     <t>41</t>
@@ -440,7 +440,7 @@
     <t>NoNesmer</t>
   </si>
   <si>
-    <t>1 ч. 46 мин. 6 сек.</t>
+    <t>1 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>46</t>
@@ -491,7 +491,7 @@
     <t>al1as</t>
   </si>
   <si>
-    <t>0 ч. 28 мин. 1 сек.</t>
+    <t>0 ч. 28 мин. 01 сек.</t>
   </si>
   <si>
     <t>52–53</t>
@@ -539,7 +539,7 @@
     <t>cybranker</t>
   </si>
   <si>
-    <t>11 ч. 6 мин. 33 сек.</t>
+    <t>11 ч. 06 мин. 33 сек.</t>
   </si>
   <si>
     <t>58</t>
@@ -548,7 +548,7 @@
     <t>artt</t>
   </si>
   <si>
-    <t>0 ч. 19 мин. 1 сек.</t>
+    <t>0 ч. 19 мин. 01 сек.</t>
   </si>
   <si>
     <t>59</t>
@@ -605,7 +605,7 @@
     <t>ilvimafr</t>
   </si>
   <si>
-    <t>0 ч. 26 мин. 6 сек.</t>
+    <t>0 ч. 26 мин. 06 сек.</t>
   </si>
   <si>
     <t>66–67</t>
@@ -644,7 +644,7 @@
     <t>Maire</t>
   </si>
   <si>
-    <t>0 ч. 44 мин. 3 сек.</t>
+    <t>0 ч. 44 мин. 03 сек.</t>
   </si>
   <si>
     <t>Вонзил</t>
@@ -659,7 +659,7 @@
     <t>4eburaska</t>
   </si>
   <si>
-    <t>0 ч. 28 мин. 2 сек.</t>
+    <t>0 ч. 28 мин. 02 сек.</t>
   </si>
   <si>
     <t>Ludimagister</t>
@@ -692,13 +692,13 @@
     <t>bangcurryabd</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 9 сек.</t>
+    <t>1 ч. 04 мин. 09 сек.</t>
   </si>
   <si>
     <t>Leruk</t>
   </si>
   <si>
-    <t>0 ч. 54 мин. 7 сек.</t>
+    <t>0 ч. 54 мин. 07 сек.</t>
   </si>
   <si>
     <t>78</t>
@@ -743,7 +743,7 @@
     <t>alex_crazy</t>
   </si>
   <si>
-    <t>0 ч. 38 мин. 5 сек.</t>
+    <t>0 ч. 38 мин. 05 сек.</t>
   </si>
   <si>
     <t>sultan12366</t>
@@ -773,7 +773,7 @@
     <t>Bhiopk</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 9 сек.</t>
+    <t>3 ч. 08 мин. 09 сек.</t>
   </si>
   <si>
     <t>strix_qb</t>
@@ -797,7 +797,7 @@
     <t>DOORb</t>
   </si>
   <si>
-    <t>34 ч. 54 мин. 3 сек.</t>
+    <t>34 ч. 54 мин. 03 сек.</t>
   </si>
   <si>
     <t>91–93</t>
@@ -806,7 +806,7 @@
     <t>Пичалька</t>
   </si>
   <si>
-    <t>0 ч. 50 мин. 5 сек.</t>
+    <t>0 ч. 50 мин. 05 сек.</t>
   </si>
   <si>
     <t>exdark</t>
@@ -836,7 +836,7 @@
     <t>Povelitel</t>
   </si>
   <si>
-    <t>0 ч. 54 мин. 6 сек.</t>
+    <t>0 ч. 54 мин. 06 сек.</t>
   </si>
   <si>
     <t>STerminator</t>
@@ -851,13 +851,13 @@
     <t>og123AI</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 6 сек.</t>
+    <t>1 ч. 03 мин. 06 сек.</t>
   </si>
   <si>
     <t>Enrage</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 29 сек.</t>
+    <t>4 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>99</t>
@@ -866,7 +866,7 @@
     <t>kdwkd</t>
   </si>
   <si>
-    <t>0 ч. 38 мин. 7 сек.</t>
+    <t>0 ч. 38 мин. 07 сек.</t>
   </si>
   <si>
     <t>100</t>
@@ -884,7 +884,7 @@
     <t>budeyshin</t>
   </si>
   <si>
-    <t>1 ч. 54 мин. 0 сек.</t>
+    <t>1 ч. 54 мин. 00 сек.</t>
   </si>
   <si>
     <t>SpeedOfLight</t>
@@ -905,7 +905,7 @@
     <t>sasha00123</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 5 сек.</t>
+    <t>1 ч. 36 мин. 05 сек.</t>
   </si>
   <si>
     <t>105</t>
@@ -923,7 +923,7 @@
     <t>Kantoro</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 34 сек.</t>
+    <t>6 ч. 00 мин. 34 сек.</t>
   </si>
   <si>
     <t>107</t>
@@ -965,7 +965,7 @@
     <t>bulatenkom</t>
   </si>
   <si>
-    <t>4 ч. 14 мин. 4 сек.</t>
+    <t>4 ч. 14 мин. 04 сек.</t>
   </si>
   <si>
     <t>iforrest</t>
@@ -992,7 +992,7 @@
     <t>urchik</t>
   </si>
   <si>
-    <t>27 ч. 3 мин. 45 сек.</t>
+    <t>27 ч. 03 мин. 45 сек.</t>
   </si>
   <si>
     <t>116</t>
@@ -1001,7 +1001,7 @@
     <t>hyperX</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 58 сек.</t>
+    <t>1 ч. 02 мин. 58 сек.</t>
   </si>
   <si>
     <t>117</t>
@@ -1010,7 +1010,7 @@
     <t>mynque</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 7 сек.</t>
+    <t>1 ч. 21 мин. 07 сек.</t>
   </si>
   <si>
     <t>118–121</t>
@@ -1031,7 +1031,7 @@
     <t>TypeError</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 17 сек.</t>
+    <t>5 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>molot-perm</t>
@@ -1055,7 +1055,7 @@
     <t>mafixxxxx</t>
   </si>
   <si>
-    <t>0 ч. 30 мин. 0 сек.</t>
+    <t>0 ч. 30 мин. 00 сек.</t>
   </si>
   <si>
     <t>ГДВ</t>
@@ -1103,7 +1103,7 @@
     <t>печеньки</t>
   </si>
   <si>
-    <t>0 ч. 55 мин. 0 сек.</t>
+    <t>0 ч. 55 мин. 00 сек.</t>
   </si>
   <si>
     <t>DenKoten</t>
@@ -1118,7 +1118,7 @@
     <t>samq</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 32 сек.</t>
+    <t>1 ч. 01 мин. 32 сек.</t>
   </si>
   <si>
     <t>132–133</t>
@@ -1142,7 +1142,7 @@
     <t>4bia</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 33 сек.</t>
+    <t>1 ч. 04 мин. 33 сек.</t>
   </si>
   <si>
     <t>135–136</t>
@@ -1175,13 +1175,13 @@
     <t>enly1</t>
   </si>
   <si>
-    <t>0 ч. 51 мин. 6 сек.</t>
+    <t>0 ч. 51 мин. 06 сек.</t>
   </si>
   <si>
     <t>Phemmer</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 20 сек.</t>
+    <t>2 ч. 00 мин. 20 сек.</t>
   </si>
   <si>
     <t>Adjery</t>
@@ -1196,7 +1196,7 @@
     <t>muhammadali</t>
   </si>
   <si>
-    <t>4 ч. 17 мин. 0 сек.</t>
+    <t>4 ч. 17 мин. 00 сек.</t>
   </si>
   <si>
     <t>142–143</t>
@@ -1274,13 +1274,13 @@
     <t>GhostInside</t>
   </si>
   <si>
-    <t>0 ч. 48 мин. 4 сек.</t>
+    <t>0 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>GreenMine</t>
   </si>
   <si>
-    <t>0 ч. 52 мин. 7 сек.</t>
+    <t>0 ч. 52 мин. 07 сек.</t>
   </si>
   <si>
     <t>152</t>
@@ -1289,7 +1289,7 @@
     <t>fayzov</t>
   </si>
   <si>
-    <t>1 ч. 41 мин. 3 сек.</t>
+    <t>1 ч. 41 мин. 03 сек.</t>
   </si>
   <si>
     <t>153–155</t>
@@ -1310,7 +1310,7 @@
     <t>Awyra2</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 4 сек.</t>
+    <t>1 ч. 59 мин. 04 сек.</t>
   </si>
   <si>
     <t>156–157</t>
@@ -1355,7 +1355,7 @@
     <t>icelin</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 0 сек.</t>
+    <t>1 ч. 24 мин. 00 сек.</t>
   </si>
   <si>
     <t>162</t>
@@ -1382,7 +1382,7 @@
     <t>valerikk</t>
   </si>
   <si>
-    <t>0 ч. 25 мин. 4 сек.</t>
+    <t>0 ч. 25 мин. 04 сек.</t>
   </si>
   <si>
     <t>typerc</t>
@@ -1406,13 +1406,13 @@
     <t>1asd</t>
   </si>
   <si>
-    <t>0 ч. 36 мин. 7 сек.</t>
+    <t>0 ч. 36 мин. 07 сек.</t>
   </si>
   <si>
     <t>vallery2000</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 18 сек.</t>
+    <t>2 ч. 08 мин. 18 сек.</t>
   </si>
   <si>
     <t>trackstarrr</t>
@@ -1424,7 +1424,7 @@
     <t>MrFlag</t>
   </si>
   <si>
-    <t>27 ч. 0 мин. 55 сек.</t>
+    <t>27 ч. 00 мин. 55 сек.</t>
   </si>
   <si>
     <t>Awyra</t>
@@ -1439,13 +1439,13 @@
     <t>enyamagazovyt</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 37 сек.</t>
+    <t>1 ч. 00 мин. 37 сек.</t>
   </si>
   <si>
     <t>Morkva1</t>
   </si>
   <si>
-    <t>55 ч. 45 мин. 0 сек.</t>
+    <t>55 ч. 45 мин. 00 сек.</t>
   </si>
   <si>
     <t>174–175</t>
@@ -1469,7 +1469,7 @@
     <t>Alex-san</t>
   </si>
   <si>
-    <t>0 ч. 21 мин. 0 сек.</t>
+    <t>0 ч. 21 мин. 00 сек.</t>
   </si>
   <si>
     <t>DrCooker</t>
@@ -1523,7 +1523,7 @@
     <t>pholin</t>
   </si>
   <si>
-    <t>0 ч. 46 мин. 0 сек.</t>
+    <t>0 ч. 46 мин. 00 сек.</t>
   </si>
   <si>
     <t>184</t>
@@ -1556,7 +1556,7 @@
     <t>NDancer</t>
   </si>
   <si>
-    <t>0 ч. 33 мин. 7 сек.</t>
+    <t>0 ч. 33 мин. 07 сек.</t>
   </si>
   <si>
     <t>lampard108</t>
@@ -1571,7 +1571,7 @@
     <t>Sebastien</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 21 сек.</t>
+    <t>5 ч. 02 мин. 21 сек.</t>
   </si>
   <si>
     <t>190–191</t>
@@ -1580,13 +1580,13 @@
     <t>proximo39</t>
   </si>
   <si>
-    <t>0 ч. 49 мин. 0 сек.</t>
+    <t>0 ч. 49 мин. 00 сек.</t>
   </si>
   <si>
     <t>Speed0034</t>
   </si>
   <si>
-    <t>22 ч. 51 мин. 5 сек.</t>
+    <t>22 ч. 51 мин. 05 сек.</t>
   </si>
   <si>
     <t>192–193</t>
@@ -1595,7 +1595,7 @@
     <t>ANTggle</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 28 сек.</t>
+    <t>1 ч. 03 мин. 28 сек.</t>
   </si>
   <si>
     <t>molto_bella</t>
@@ -1625,7 +1625,7 @@
     <t>SpiritCrusher</t>
   </si>
   <si>
-    <t>0 ч. 47 мин. 9 сек.</t>
+    <t>0 ч. 47 мин. 09 сек.</t>
   </si>
   <si>
     <t>benzoSHARK</t>
@@ -1643,19 +1643,19 @@
     <t>valeryani</t>
   </si>
   <si>
-    <t>1 ч. 15 мин. 3 сек.</t>
+    <t>1 ч. 15 мин. 03 сек.</t>
   </si>
   <si>
     <t>amt</t>
   </si>
   <si>
-    <t>2 ч. 57 мин. 6 сек.</t>
+    <t>2 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>cmdh</t>
   </si>
   <si>
-    <t>9 ч. 10 мин. 9 сек.</t>
+    <t>9 ч. 10 мин. 09 сек.</t>
   </si>
   <si>
     <t>202–203</t>
@@ -1670,7 +1670,7 @@
     <t>Продается</t>
   </si>
   <si>
-    <t>1 ч. 11 мин. 5 сек.</t>
+    <t>1 ч. 11 мин. 05 сек.</t>
   </si>
   <si>
     <t>204</t>
@@ -1679,7 +1679,7 @@
     <t>hellomoto</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 52 сек.</t>
+    <t>1 ч. 02 мин. 52 сек.</t>
   </si>
   <si>
     <t>205–208</t>
@@ -1727,7 +1727,7 @@
     <t>andreitipo</t>
   </si>
   <si>
-    <t>19 ч. 7 мин. 33 сек.</t>
+    <t>19 ч. 07 мин. 33 сек.</t>
   </si>
   <si>
     <t>212</t>
@@ -1781,7 +1781,7 @@
     <t>паукан</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 29 сек.</t>
+    <t>2 ч. 06 мин. 29 сек.</t>
   </si>
   <si>
     <t>Fozyyy</t>
@@ -1826,7 +1826,7 @@
     <t>saben_askhat</t>
   </si>
   <si>
-    <t>7 ч. 26 мин. 4 сек.</t>
+    <t>7 ч. 26 мин. 04 сек.</t>
   </si>
   <si>
     <t>226–228</t>
@@ -1907,13 +1907,13 @@
     <t>taff</t>
   </si>
   <si>
-    <t>0 ч. 48 мин. 1 сек.</t>
+    <t>0 ч. 48 мин. 01 сек.</t>
   </si>
   <si>
     <t>Квак</t>
   </si>
   <si>
-    <t>0 ч. 52 мин. 2 сек.</t>
+    <t>0 ч. 52 мин. 02 сек.</t>
   </si>
   <si>
     <t>vido88</t>
@@ -1985,25 +1985,25 @@
     <t>Just_Monika</t>
   </si>
   <si>
-    <t>0 ч. 33 мин. 9 сек.</t>
+    <t>0 ч. 33 мин. 09 сек.</t>
   </si>
   <si>
     <t>john_lennon228</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 12 сек.</t>
+    <t>1 ч. 03 мин. 12 сек.</t>
   </si>
   <si>
     <t>e2e4</t>
   </si>
   <si>
-    <t>4 ч. 28 мин. 8 сек.</t>
+    <t>4 ч. 28 мин. 08 сек.</t>
   </si>
   <si>
     <t>mutext</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 4 сек.</t>
+    <t>7 ч. 01 мин. 04 сек.</t>
   </si>
   <si>
     <t>251</t>
@@ -2057,13 +2057,13 @@
     <t>amadeus01</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 45 сек.</t>
+    <t>3 ч. 07 мин. 45 сек.</t>
   </si>
   <si>
     <t>DehoffEgor</t>
   </si>
   <si>
-    <t>4 ч. 10 мин. 8 сек.</t>
+    <t>4 ч. 10 мин. 08 сек.</t>
   </si>
   <si>
     <t>Ethicon</t>
@@ -2093,7 +2093,7 @@
     <t>MrSir</t>
   </si>
   <si>
-    <t>17 ч. 29 мин. 5 сек.</t>
+    <t>17 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>263–266</t>
@@ -2102,7 +2102,7 @@
     <t>programmer15</t>
   </si>
   <si>
-    <t>0 ч. 47 мин. 2 сек.</t>
+    <t>0 ч. 47 мин. 02 сек.</t>
   </si>
   <si>
     <t>Буквы</t>
@@ -2156,7 +2156,7 @@
     <t>tritopora</t>
   </si>
   <si>
-    <t>17 ч. 3 мин. 41 сек.</t>
+    <t>17 ч. 03 мин. 41 сек.</t>
   </si>
   <si>
     <t>272–273</t>
@@ -2171,7 +2171,7 @@
     <t>vIRwO</t>
   </si>
   <si>
-    <t>22 ч. 37 мин. 0 сек.</t>
+    <t>22 ч. 37 мин. 00 сек.</t>
   </si>
   <si>
     <t>274–275</t>
@@ -2195,7 +2195,7 @@
     <t>AHTOH</t>
   </si>
   <si>
-    <t>3 ч. 57 мин. 7 сек.</t>
+    <t>3 ч. 57 мин. 07 сек.</t>
   </si>
   <si>
     <t>277–279</t>
@@ -2204,19 +2204,19 @@
     <t>Vk625</t>
   </si>
   <si>
-    <t>0 ч. 59 мин. 3 сек.</t>
+    <t>0 ч. 59 мин. 03 сек.</t>
   </si>
   <si>
     <t>nevans</t>
   </si>
   <si>
-    <t>1 ч. 49 мин. 3 сек.</t>
+    <t>1 ч. 49 мин. 03 сек.</t>
   </si>
   <si>
     <t>Hexan</t>
   </si>
   <si>
-    <t>2 ч. 36 мин. 3 сек.</t>
+    <t>2 ч. 36 мин. 03 сек.</t>
   </si>
   <si>
     <t>280</t>
@@ -2234,7 +2234,7 @@
     <t>droom</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 48 сек.</t>
+    <t>2 ч. 07 мин. 48 сек.</t>
   </si>
   <si>
     <t>kaduk</t>
@@ -2255,7 +2255,7 @@
     <t>Vsesvet</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 12 сек.</t>
+    <t>5 ч. 07 мин. 12 сек.</t>
   </si>
   <si>
     <t>285–287</t>
@@ -2264,7 +2264,7 @@
     <t>DarkP1xel337</t>
   </si>
   <si>
-    <t>0 ч. 25 мин. 2 сек.</t>
+    <t>0 ч. 25 мин. 02 сек.</t>
   </si>
   <si>
     <t>Skorostrel228</t>
@@ -2297,13 +2297,13 @@
     <t>ruhe</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 1 сек.</t>
+    <t>4 ч. 02 мин. 01 сек.</t>
   </si>
   <si>
     <t>NionNet</t>
   </si>
   <si>
-    <t>5 ч. 27 мин. 1 сек.</t>
+    <t>5 ч. 27 мин. 01 сек.</t>
   </si>
   <si>
     <t>Satory</t>
@@ -2324,7 +2324,7 @@
     <t>Racer729</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 49 сек.</t>
+    <t>1 ч. 05 мин. 49 сек.</t>
   </si>
   <si>
     <t>295–296</t>
@@ -2345,13 +2345,13 @@
     <t>AlexSIBER</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 22 сек.</t>
+    <t>1 ч. 04 мин. 22 сек.</t>
   </si>
   <si>
     <t>lampqweee</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 25 сек.</t>
+    <t>5 ч. 01 мин. 25 сек.</t>
   </si>
   <si>
     <t>299</t>
@@ -2375,7 +2375,7 @@
     <t>Велимира</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 30 сек.</t>
+    <t>2 ч. 02 мин. 30 сек.</t>
   </si>
   <si>
     <t>mavdix</t>
@@ -2387,7 +2387,7 @@
     <t>carmero</t>
   </si>
   <si>
-    <t>4 ч. 48 мин. 7 сек.</t>
+    <t>4 ч. 48 мин. 07 сек.</t>
   </si>
   <si>
     <t>closure</t>
@@ -2426,7 +2426,7 @@
     <t>Garmonica</t>
   </si>
   <si>
-    <t>0 ч. 32 мин. 7 сек.</t>
+    <t>0 ч. 32 мин. 07 сек.</t>
   </si>
   <si>
     <t>отпросился</t>
@@ -2444,13 +2444,13 @@
     <t>Breakdown</t>
   </si>
   <si>
-    <t>2 ч. 11 мин. 0 сек.</t>
+    <t>2 ч. 11 мин. 00 сек.</t>
   </si>
   <si>
     <t>Тираэль</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 15 сек.</t>
+    <t>4 ч. 06 мин. 15 сек.</t>
   </si>
   <si>
     <t>313–316</t>
@@ -2513,7 +2513,7 @@
     <t>coffeek</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 54 сек.</t>
+    <t>3 ч. 08 мин. 54 сек.</t>
   </si>
   <si>
     <t>322–323</t>
@@ -2567,7 +2567,7 @@
     <t>mzda</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 11 сек.</t>
+    <t>1 ч. 05 мин. 11 сек.</t>
   </si>
   <si>
     <t>329–330</t>
@@ -2597,7 +2597,7 @@
     <t>SaLatIk</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 11 сек.</t>
+    <t>1 ч. 08 мин. 11 сек.</t>
   </si>
   <si>
     <t>Manmax10</t>
@@ -2615,13 +2615,13 @@
     <t>Wantnonick</t>
   </si>
   <si>
-    <t>0 ч. 51 мин. 7 сек.</t>
+    <t>0 ч. 51 мин. 07 сек.</t>
   </si>
   <si>
     <t>Helsereet</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 44 сек.</t>
+    <t>1 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>lazy_assassin</t>
@@ -2684,13 +2684,13 @@
     <t>AccuracyFirst</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 8 сек.</t>
+    <t>2 ч. 16 мин. 08 сек.</t>
   </si>
   <si>
     <t>lxndrdnlv</t>
   </si>
   <si>
-    <t>3 ч. 19 мин. 6 сек.</t>
+    <t>3 ч. 19 мин. 06 сек.</t>
   </si>
   <si>
     <t>347–350</t>
@@ -2717,7 +2717,7 @@
     <t>Victor_storm</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 2 сек.</t>
+    <t>4 ч. 04 мин. 02 сек.</t>
   </si>
   <si>
     <t>351–353</t>
@@ -2750,19 +2750,19 @@
     <t>ayarayarovich</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 2 сек.</t>
+    <t>1 ч. 03 мин. 02 сек.</t>
   </si>
   <si>
     <t>Alkaline</t>
   </si>
   <si>
-    <t>0 ч. 57 мин. 6 сек.</t>
+    <t>0 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>Lokomoko</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 8 сек.</t>
+    <t>1 ч. 07 мин. 08 сек.</t>
   </si>
   <si>
     <t>jacknov</t>
@@ -2786,7 +2786,7 @@
     <t>Kruzo</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 3 сек.</t>
+    <t>1 ч. 53 мин. 03 сек.</t>
   </si>
   <si>
     <t>361–362</t>
@@ -2801,7 +2801,7 @@
     <t>wm_is_life</t>
   </si>
   <si>
-    <t>5 ч. 56 мин. 8 сек.</t>
+    <t>5 ч. 56 мин. 08 сек.</t>
   </si>
   <si>
     <t>363–367</t>
@@ -2843,13 +2843,13 @@
     <t>kkspy</t>
   </si>
   <si>
-    <t>0 ч. 40 мин. 5 сек.</t>
+    <t>0 ч. 40 мин. 05 сек.</t>
   </si>
   <si>
     <t>Kir_V</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 47 сек.</t>
+    <t>5 ч. 01 мин. 47 сек.</t>
   </si>
   <si>
     <t>370–375</t>
@@ -2870,19 +2870,19 @@
     <t>andech</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 28 сек.</t>
+    <t>3 ч. 06 мин. 28 сек.</t>
   </si>
   <si>
     <t>vulpinex</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 34 сек.</t>
+    <t>3 ч. 08 мин. 34 сек.</t>
   </si>
   <si>
     <t>milkmark</t>
   </si>
   <si>
-    <t>4 ч. 21 мин. 1 сек.</t>
+    <t>4 ч. 21 мин. 01 сек.</t>
   </si>
   <si>
     <t>gevix</t>
@@ -2906,7 +2906,7 @@
     <t>Игра_слов</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 12 сек.</t>
+    <t>1 ч. 05 мин. 12 сек.</t>
   </si>
   <si>
     <t>ViSSion</t>
@@ -2957,7 +2957,7 @@
     <t>Lulzilla</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 43 сек.</t>
+    <t>6 ч. 00 мин. 43 сек.</t>
   </si>
   <si>
     <t>Cherrik</t>
@@ -2990,13 +2990,13 @@
     <t>nutipaprivet</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 31 сек.</t>
+    <t>4 ч. 01 мин. 31 сек.</t>
   </si>
   <si>
     <t>Skupra</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 14 сек.</t>
+    <t>4 ч. 08 мин. 14 сек.</t>
   </si>
   <si>
     <t>aka-mother</t>
@@ -3029,7 +3029,7 @@
     <t>Sonick071</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 24 сек.</t>
+    <t>4 ч. 09 мин. 24 сек.</t>
   </si>
   <si>
     <t>396</t>
@@ -3038,7 +3038,7 @@
     <t>элля</t>
   </si>
   <si>
-    <t>2 ч. 58 мин. 8 сек.</t>
+    <t>2 ч. 58 мин. 08 сек.</t>
   </si>
   <si>
     <t>397</t>
@@ -3131,7 +3131,7 @@
     <t>unehend</t>
   </si>
   <si>
-    <t>2 ч. 35 мин. 2 сек.</t>
+    <t>2 ч. 35 мин. 02 сек.</t>
   </si>
   <si>
     <t>blkrop</t>
@@ -3167,7 +3167,7 @@
     <t>marvelage</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 56 сек.</t>
+    <t>1 ч. 01 мин. 56 сек.</t>
   </si>
   <si>
     <t>13uvarov</t>
@@ -3194,7 +3194,7 @@
     <t>lolka228ss</t>
   </si>
   <si>
-    <t>2 ч. 17 мин. 6 сек.</t>
+    <t>2 ч. 17 мин. 06 сек.</t>
   </si>
   <si>
     <t>gb03db</t>
@@ -3254,7 +3254,7 @@
     <t>north_air</t>
   </si>
   <si>
-    <t>1 ч. 51 мин. 4 сек.</t>
+    <t>1 ч. 51 мин. 04 сек.</t>
   </si>
   <si>
     <t>я_араб</t>
@@ -3269,7 +3269,7 @@
     <t>Morbid_Angel</t>
   </si>
   <si>
-    <t>2 ч. 56 мин. 2 сек.</t>
+    <t>2 ч. 56 мин. 02 сек.</t>
   </si>
   <si>
     <t>Пиво</t>
@@ -3281,7 +3281,7 @@
     <t>stasostrouhov</t>
   </si>
   <si>
-    <t>3 ч. 34 мин. 9 сек.</t>
+    <t>3 ч. 34 мин. 09 сек.</t>
   </si>
   <si>
     <t>Siltrim</t>
@@ -3344,13 +3344,13 @@
     <t>BogdanK</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 3 сек.</t>
+    <t>1 ч. 27 мин. 03 сек.</t>
   </si>
   <si>
     <t>Tottiwa</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 3 сек.</t>
+    <t>2 ч. 29 мин. 03 сек.</t>
   </si>
   <si>
     <t>Ruslan_Rud</t>
@@ -3374,7 +3374,7 @@
     <t>dsdt</t>
   </si>
   <si>
-    <t>1 ч. 48 мин. 3 сек.</t>
+    <t>1 ч. 48 мин. 03 сек.</t>
   </si>
   <si>
     <t>po1sonEd</t>
@@ -3404,7 +3404,7 @@
     <t>Lucky_Cat</t>
   </si>
   <si>
-    <t>0 ч. 30 мин. 5 сек.</t>
+    <t>0 ч. 30 мин. 05 сек.</t>
   </si>
   <si>
     <t>Feshchenko</t>
@@ -3455,7 +3455,7 @@
     <t>БомблюНаАйпаде</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 6 сек.</t>
+    <t>1 ч. 01 мин. 06 сек.</t>
   </si>
   <si>
     <t>456–457</t>
@@ -3470,7 +3470,7 @@
     <t>saxonnasvyazi</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 33 сек.</t>
+    <t>7 ч. 00 мин. 33 сек.</t>
   </si>
   <si>
     <t>458–460</t>
@@ -3479,7 +3479,7 @@
     <t>Алуний</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 28 сек.</t>
+    <t>1 ч. 00 мин. 28 сек.</t>
   </si>
   <si>
     <t>Althea_Fullmoon</t>
@@ -3506,7 +3506,7 @@
     <t>Aiswer</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 42 сек.</t>
+    <t>2 ч. 02 мин. 42 сек.</t>
   </si>
   <si>
     <t>motivation</t>
@@ -3518,7 +3518,7 @@
     <t>Алексей_Дао</t>
   </si>
   <si>
-    <t>3 ч. 41 мин. 1 сек.</t>
+    <t>3 ч. 41 мин. 01 сек.</t>
   </si>
   <si>
     <t>Сонь</t>
@@ -3548,13 +3548,13 @@
     <t>Sergey_Perm</t>
   </si>
   <si>
-    <t>2 ч. 37 мин. 9 сек.</t>
+    <t>2 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>wilsonept</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 16 сек.</t>
+    <t>3 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>_Roma_</t>
@@ -3581,7 +3581,7 @@
     <t>МайлзГ</t>
   </si>
   <si>
-    <t>0 ч. 44 мин. 6 сек.</t>
+    <t>0 ч. 44 мин. 06 сек.</t>
   </si>
   <si>
     <t>plytishka</t>
@@ -3605,7 +3605,7 @@
     <t>severn</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 44 сек.</t>
+    <t>5 ч. 00 мин. 44 сек.</t>
   </si>
   <si>
     <t>fuel_injection</t>
@@ -3659,7 +3659,7 @@
     <t>Nebuchadnezzar</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 26 сек.</t>
+    <t>1 ч. 01 мин. 26 сек.</t>
   </si>
   <si>
     <t>slavamnem</t>
@@ -3674,7 +3674,7 @@
     <t>_Jack_</t>
   </si>
   <si>
-    <t>0 ч. 29 мин. 3 сек.</t>
+    <t>0 ч. 29 мин. 03 сек.</t>
   </si>
   <si>
     <t>kageneko</t>
@@ -3773,7 +3773,7 @@
     <t>SilverVVolf</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 33 сек.</t>
+    <t>2 ч. 00 мин. 33 сек.</t>
   </si>
   <si>
     <t>aerondier</t>
@@ -3794,7 +3794,7 @@
     <t>optozorax</t>
   </si>
   <si>
-    <t>0 ч. 55 мин. 5 сек.</t>
+    <t>0 ч. 55 мин. 05 сек.</t>
   </si>
   <si>
     <t>aGm</t>
@@ -3806,7 +3806,7 @@
     <t>brolnickij</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 57 сек.</t>
+    <t>2 ч. 07 мин. 57 сек.</t>
   </si>
   <si>
     <t>MoskovKazanova</t>
@@ -3827,7 +3827,7 @@
     <t>_Aectann_</t>
   </si>
   <si>
-    <t>0 ч. 52 мин. 4 сек.</t>
+    <t>0 ч. 52 мин. 04 сек.</t>
   </si>
   <si>
     <t>Alex555</t>
@@ -3848,7 +3848,7 @@
     <t>JimTheFish</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 24 сек.</t>
+    <t>1 ч. 02 мин. 24 сек.</t>
   </si>
   <si>
     <t>VSW</t>
@@ -3869,7 +3869,7 @@
     <t>Dyooxa</t>
   </si>
   <si>
-    <t>0 ч. 49 мин. 4 сек.</t>
+    <t>0 ч. 49 мин. 04 сек.</t>
   </si>
   <si>
     <t>epicprime</t>
@@ -3896,7 +3896,7 @@
     <t>banzaichik</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 35 сек.</t>
+    <t>4 ч. 04 мин. 35 сек.</t>
   </si>
   <si>
     <t>521–524</t>
@@ -3908,7 +3908,7 @@
     <t>zujen</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 41 сек.</t>
+    <t>2 ч. 01 мин. 41 сек.</t>
   </si>
   <si>
     <t>xlsx</t>
@@ -3974,7 +3974,7 @@
     <t>Dim37</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 27 сек.</t>
+    <t>1 ч. 02 мин. 27 сек.</t>
   </si>
   <si>
     <t>Andrey999K</t>
@@ -3998,13 +3998,13 @@
     <t>freelancerUz</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 42 сек.</t>
+    <t>2 ч. 03 мин. 42 сек.</t>
   </si>
   <si>
     <t>ilchu</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 20 сек.</t>
+    <t>4 ч. 01 мин. 20 сек.</t>
   </si>
   <si>
     <t>538–540</t>
@@ -4013,19 +4013,19 @@
     <t>lizardking</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 1 сек.</t>
+    <t>1 ч. 22 мин. 01 сек.</t>
   </si>
   <si>
     <t>allfastiko</t>
   </si>
   <si>
-    <t>1 ч. 30 мин. 1 сек.</t>
+    <t>1 ч. 30 мин. 01 сек.</t>
   </si>
   <si>
     <t>Кот_Черныш</t>
   </si>
   <si>
-    <t>1 ч. 52 мин. 9 сек.</t>
+    <t>1 ч. 52 мин. 09 сек.</t>
   </si>
   <si>
     <t>541–546</t>
@@ -4058,13 +4058,13 @@
     <t>Timurito</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 45 сек.</t>
+    <t>3 ч. 04 мин. 45 сек.</t>
   </si>
   <si>
     <t>Стартуем</t>
   </si>
   <si>
-    <t>6 ч. 58 мин. 9 сек.</t>
+    <t>6 ч. 58 мин. 09 сек.</t>
   </si>
   <si>
     <t>547–552</t>
@@ -4085,13 +4085,13 @@
     <t>mishka22</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 17 сек.</t>
+    <t>2 ч. 04 мин. 17 сек.</t>
   </si>
   <si>
     <t>оральныйДемон</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 25 сек.</t>
+    <t>2 ч. 06 мин. 25 сек.</t>
   </si>
   <si>
     <t>Argregor</t>
@@ -4199,7 +4199,7 @@
     <t>KarimGan</t>
   </si>
   <si>
-    <t>0 ч. 42 мин. 7 сек.</t>
+    <t>0 ч. 42 мин. 07 сек.</t>
   </si>
   <si>
     <t>Guillentes</t>
@@ -4262,7 +4262,7 @@
     <t>Sterios</t>
   </si>
   <si>
-    <t>0 ч. 29 мин. 1 сек.</t>
+    <t>0 ч. 29 мин. 01 сек.</t>
   </si>
   <si>
     <t>Rozygeldiyew</t>
@@ -4313,7 +4313,7 @@
     <t>Hydrargyrum</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 23 сек.</t>
+    <t>2 ч. 08 мин. 23 сек.</t>
   </si>
   <si>
     <t>584–591</t>
@@ -4328,7 +4328,7 @@
     <t>dampilko</t>
   </si>
   <si>
-    <t>0 ч. 34 мин. 0 сек.</t>
+    <t>0 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>KRABOLD</t>
@@ -4352,7 +4352,7 @@
     <t>YaroslavSh</t>
   </si>
   <si>
-    <t>1 ч. 30 мин. 4 сек.</t>
+    <t>1 ч. 30 мин. 04 сек.</t>
   </si>
   <si>
     <t>Nolan_Joke</t>
@@ -4364,7 +4364,7 @@
     <t>exektc</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 34 сек.</t>
+    <t>3 ч. 07 мин. 34 сек.</t>
   </si>
   <si>
     <t>592–593</t>
@@ -4427,7 +4427,7 @@
     <t>aa3</t>
   </si>
   <si>
-    <t>0 ч. 33 мин. 4 сек.</t>
+    <t>0 ч. 33 мин. 04 сек.</t>
   </si>
   <si>
     <t>manfies</t>
@@ -4439,7 +4439,7 @@
     <t>madhoney123</t>
   </si>
   <si>
-    <t>4 ч. 11 мин. 2 сек.</t>
+    <t>4 ч. 11 мин. 02 сек.</t>
   </si>
   <si>
     <t>603–608</t>
@@ -4466,7 +4466,7 @@
     <t>elektrolobzik</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 2 сек.</t>
+    <t>1 ч. 55 мин. 02 сек.</t>
   </si>
   <si>
     <t>Armgo</t>
@@ -4520,13 +4520,13 @@
     <t>vlks</t>
   </si>
   <si>
-    <t>0 ч. 36 мин. 4 сек.</t>
+    <t>0 ч. 36 мин. 04 сек.</t>
   </si>
   <si>
     <t>Follow_Me</t>
   </si>
   <si>
-    <t>0 ч. 45 мин. 3 сек.</t>
+    <t>0 ч. 45 мин. 03 сек.</t>
   </si>
   <si>
     <t>kostya365</t>
@@ -4544,7 +4544,7 @@
     <t>ofirinka</t>
   </si>
   <si>
-    <t>31 ч. 10 мин. 7 сек.</t>
+    <t>31 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>619–620</t>
@@ -4553,7 +4553,7 @@
     <t>sofarewell</t>
   </si>
   <si>
-    <t>0 ч. 37 мин. 7 сек.</t>
+    <t>0 ч. 37 мин. 07 сек.</t>
   </si>
   <si>
     <t>svkov</t>
@@ -4592,7 +4592,7 @@
     <t>Анна_Банановна</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 52 сек.</t>
+    <t>1 ч. 05 мин. 52 сек.</t>
   </si>
   <si>
     <t>626–627</t>
@@ -4637,7 +4637,7 @@
     <t>screepa</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 6 сек.</t>
+    <t>2 ч. 30 мин. 06 сек.</t>
   </si>
   <si>
     <t>janibek5050</t>
@@ -4652,7 +4652,7 @@
     <t>potykk</t>
   </si>
   <si>
-    <t>5 ч. 5 мин. 24 сек.</t>
+    <t>5 ч. 05 мин. 24 сек.</t>
   </si>
   <si>
     <t>Coyote12</t>
@@ -4691,7 +4691,7 @@
     <t>BrainDrain</t>
   </si>
   <si>
-    <t>2 ч. 56 мин. 1 сек.</t>
+    <t>2 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>Artem7</t>
@@ -4712,7 +4712,7 @@
     <t>Berkana</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 37 сек.</t>
+    <t>1 ч. 08 мин. 37 сек.</t>
   </si>
   <si>
     <t>маркелов</t>
@@ -4730,7 +4730,7 @@
     <t>smbody</t>
   </si>
   <si>
-    <t>5 ч. 40 мин. 5 сек.</t>
+    <t>5 ч. 40 мин. 05 сек.</t>
   </si>
   <si>
     <t>IvanProskura</t>
@@ -4778,7 +4778,7 @@
     <t>paulzzz</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 41 сек.</t>
+    <t>1 ч. 07 мин. 41 сек.</t>
   </si>
   <si>
     <t>UnrealUnity</t>
@@ -4805,7 +4805,7 @@
     <t>luminofer</t>
   </si>
   <si>
-    <t>1 ч. 43 мин. 3 сек.</t>
+    <t>1 ч. 43 мин. 03 сек.</t>
   </si>
   <si>
     <t>gitnab</t>
@@ -4820,7 +4820,7 @@
     <t>baser42</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 2 сек.</t>
+    <t>2 ч. 02 мин. 02 сек.</t>
   </si>
   <si>
     <t>Prostokvasino</t>
@@ -4838,13 +4838,13 @@
     <t>Awooo</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 49 сек.</t>
+    <t>1 ч. 00 мин. 49 сек.</t>
   </si>
   <si>
     <t>alhray</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 17 сек.</t>
+    <t>1 ч. 05 мин. 17 сек.</t>
   </si>
   <si>
     <t>smith98</t>
@@ -4910,7 +4910,7 @@
     <t>aymurza6060</t>
   </si>
   <si>
-    <t>8 ч. 32 мин. 1 сек.</t>
+    <t>8 ч. 32 мин. 01 сек.</t>
   </si>
   <si>
     <t>674–679</t>
@@ -4961,7 +4961,7 @@
     <t>moraq</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 18 сек.</t>
+    <t>1 ч. 03 мин. 18 сек.</t>
   </si>
   <si>
     <t>zakolloz</t>
@@ -4994,13 +4994,13 @@
     <t>QQ-Mash</t>
   </si>
   <si>
-    <t>1 ч. 47 мин. 8 сек.</t>
+    <t>1 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>-insOMnia-</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 15 сек.</t>
+    <t>3 ч. 04 мин. 15 сек.</t>
   </si>
   <si>
     <t>kama3547</t>
@@ -5021,7 +5021,7 @@
     <t>Selica</t>
   </si>
   <si>
-    <t>0 ч. 41 мин. 5 сек.</t>
+    <t>0 ч. 41 мин. 05 сек.</t>
   </si>
   <si>
     <t>Suvoroff</t>
@@ -5048,13 +5048,13 @@
     <t>migo</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 48 сек.</t>
+    <t>1 ч. 03 мин. 48 сек.</t>
   </si>
   <si>
     <t>Spark31</t>
   </si>
   <si>
-    <t>7 ч. 7 мин. 56 сек.</t>
+    <t>7 ч. 07 мин. 56 сек.</t>
   </si>
   <si>
     <t>696–697</t>
@@ -5063,13 +5063,13 @@
     <t>Нур-Султан</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 51 сек.</t>
+    <t>1 ч. 06 мин. 51 сек.</t>
   </si>
   <si>
     <t>Waleria</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 37 сек.</t>
+    <t>2 ч. 01 мин. 37 сек.</t>
   </si>
   <si>
     <t>698–700</t>
@@ -5108,7 +5108,7 @@
     <t>parfenov</t>
   </si>
   <si>
-    <t>6 ч. 4 мин. 21 сек.</t>
+    <t>6 ч. 04 мин. 21 сек.</t>
   </si>
   <si>
     <t>704–705</t>
@@ -5117,7 +5117,7 @@
     <t>Irina_25</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 20 сек.</t>
+    <t>2 ч. 01 мин. 20 сек.</t>
   </si>
   <si>
     <t>tihonua</t>
@@ -5132,13 +5132,13 @@
     <t>batyrkhan4ik</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 22 сек.</t>
+    <t>1 ч. 02 мин. 22 сек.</t>
   </si>
   <si>
     <t>damir27</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 6 сек.</t>
+    <t>1 ч. 28 мин. 06 сек.</t>
   </si>
   <si>
     <t>_VR_</t>
@@ -5165,7 +5165,7 @@
     <t>ДядяСаша</t>
   </si>
   <si>
-    <t>6 ч. 20 мин. 0 сек.</t>
+    <t>6 ч. 20 мин. 00 сек.</t>
   </si>
   <si>
     <t>712–713</t>
@@ -5174,7 +5174,7 @@
     <t>Декарт</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 17 сек.</t>
+    <t>1 ч. 06 мин. 17 сек.</t>
   </si>
   <si>
     <t>krabgoda</t>
@@ -5189,7 +5189,7 @@
     <t>loject</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 39 сек.</t>
+    <t>3 ч. 03 мин. 39 сек.</t>
   </si>
   <si>
     <t>iBumble</t>
@@ -5216,7 +5216,7 @@
     <t>JESE_R</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 32 сек.</t>
+    <t>2 ч. 01 мин. 32 сек.</t>
   </si>
   <si>
     <t>maxx777</t>
@@ -5258,13 +5258,13 @@
     <t>martast</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 4 сек.</t>
+    <t>2 ч. 05 мин. 04 сек.</t>
   </si>
   <si>
     <t>IxC999</t>
   </si>
   <si>
-    <t>7 ч. 54 мин. 3 сек.</t>
+    <t>7 ч. 54 мин. 03 сек.</t>
   </si>
   <si>
     <t>sanbud</t>
@@ -5315,7 +5315,7 @@
     <t>pinkPockemon</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 36 сек.</t>
+    <t>2 ч. 09 мин. 36 сек.</t>
   </si>
   <si>
     <t>DonPiedro</t>
@@ -5330,7 +5330,7 @@
     <t>Packito</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 45 сек.</t>
+    <t>2 ч. 08 мин. 45 сек.</t>
   </si>
   <si>
     <t>doktorkrab</t>
@@ -5372,7 +5372,7 @@
     <t>Nitive</t>
   </si>
   <si>
-    <t>4 ч. 19 мин. 1 сек.</t>
+    <t>4 ч. 19 мин. 01 сек.</t>
   </si>
   <si>
     <t>741–745</t>
@@ -5399,7 +5399,7 @@
     <t>adonA</t>
   </si>
   <si>
-    <t>4 ч. 53 мин. 8 сек.</t>
+    <t>4 ч. 53 мин. 08 сек.</t>
   </si>
   <si>
     <t>rar17</t>
@@ -5414,7 +5414,7 @@
     <t>Lookatmybar</t>
   </si>
   <si>
-    <t>0 ч. 32 мин. 5 сек.</t>
+    <t>0 ч. 32 мин. 05 сек.</t>
   </si>
   <si>
     <t>Alx307</t>
@@ -5462,7 +5462,7 @@
     <t>sultanfect</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 3 сек.</t>
+    <t>1 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>754–757</t>
@@ -5510,7 +5510,7 @@
     <t>egortar</t>
   </si>
   <si>
-    <t>0 ч. 41 мин. 7 сек.</t>
+    <t>0 ч. 41 мин. 07 сек.</t>
   </si>
   <si>
     <t>OldLeg</t>
@@ -5528,7 +5528,7 @@
     <t>proydenko</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 12 сек.</t>
+    <t>1 ч. 00 мин. 12 сек.</t>
   </si>
   <si>
     <t>764–768</t>
@@ -5543,25 +5543,25 @@
     <t>Likmor</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 43 сек.</t>
+    <t>1 ч. 08 мин. 43 сек.</t>
   </si>
   <si>
     <t>Клоподав</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 51 сек.</t>
+    <t>3 ч. 09 мин. 51 сек.</t>
   </si>
   <si>
     <t>stuk_alex</t>
   </si>
   <si>
-    <t>4 ч. 10 мин. 5 сек.</t>
+    <t>4 ч. 10 мин. 05 сек.</t>
   </si>
   <si>
     <t>Рустамко</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 2 сек.</t>
+    <t>4 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>769–770</t>
@@ -5570,7 +5570,7 @@
     <t>Tan_ker</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 9 сек.</t>
+    <t>1 ч. 06 мин. 09 сек.</t>
   </si>
   <si>
     <t>nakosh</t>
@@ -5618,7 +5618,7 @@
     <t>mercy123</t>
   </si>
   <si>
-    <t>19 ч. 1 мин. 58 сек.</t>
+    <t>19 ч. 01 мин. 58 сек.</t>
   </si>
   <si>
     <t>777–778</t>
@@ -5657,7 +5657,7 @@
     <t>zualex32</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 30 сек.</t>
+    <t>1 ч. 04 мин. 30 сек.</t>
   </si>
   <si>
     <t>LordQcold</t>
@@ -5690,7 +5690,7 @@
     <t>arokoko</t>
   </si>
   <si>
-    <t>8 ч. 16 мин. 0 сек.</t>
+    <t>8 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>788–792</t>
@@ -5705,7 +5705,7 @@
     <t>GhostX</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 1 сек.</t>
+    <t>1 ч. 04 мин. 01 сек.</t>
   </si>
   <si>
     <t>Ямастер</t>
@@ -5717,7 +5717,7 @@
     <t>lar_k</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 43 сек.</t>
+    <t>1 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>Shamike</t>
@@ -5744,13 +5744,13 @@
     <t>Listik_Explus</t>
   </si>
   <si>
-    <t>0 ч. 58 мин. 1 сек.</t>
+    <t>0 ч. 58 мин. 01 сек.</t>
   </si>
   <si>
     <t>sun_in_glass</t>
   </si>
   <si>
-    <t>1 ч. 29 мин. 7 сек.</t>
+    <t>1 ч. 29 мин. 07 сек.</t>
   </si>
   <si>
     <t>797–803</t>
@@ -5804,13 +5804,13 @@
     <t>DasParfum</t>
   </si>
   <si>
-    <t>0 ч. 35 мин. 7 сек.</t>
+    <t>0 ч. 35 мин. 07 сек.</t>
   </si>
   <si>
     <t>MisterJay</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 11 сек.</t>
+    <t>8 ч. 03 мин. 11 сек.</t>
   </si>
   <si>
     <t>806–807</t>
@@ -5825,7 +5825,7 @@
     <t>kvdum</t>
   </si>
   <si>
-    <t>2 ч. 48 мин. 7 сек.</t>
+    <t>2 ч. 48 мин. 07 сек.</t>
   </si>
   <si>
     <t>808–809</t>
@@ -5840,7 +5840,7 @@
     <t>Skymikun</t>
   </si>
   <si>
-    <t>0 ч. 38 мин. 1 сек.</t>
+    <t>0 ч. 38 мин. 01 сек.</t>
   </si>
   <si>
     <t>810–812</t>
@@ -5858,7 +5858,7 @@
     <t>formax</t>
   </si>
   <si>
-    <t>4 ч. 28 мин. 0 сек.</t>
+    <t>4 ч. 28 мин. 00 сек.</t>
   </si>
   <si>
     <t>813–815</t>
@@ -5873,13 +5873,13 @@
     <t>h0rr0r</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 58 сек.</t>
+    <t>1 ч. 07 мин. 58 сек.</t>
   </si>
   <si>
     <t>romashe</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 38 сек.</t>
+    <t>1 ч. 08 мин. 38 сек.</t>
   </si>
   <si>
     <t>816–817</t>
@@ -5888,7 +5888,7 @@
     <t>nikogo</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 49 сек.</t>
+    <t>3 ч. 06 мин. 49 сек.</t>
   </si>
   <si>
     <t>n-malish</t>
@@ -5921,7 +5921,7 @@
     <t>S_T_A_L_K_E_R</t>
   </si>
   <si>
-    <t>1 ч. 37 мин. 0 сек.</t>
+    <t>1 ч. 37 мин. 00 сек.</t>
   </si>
   <si>
     <t>Ахилес</t>
@@ -5939,7 +5939,7 @@
     <t>Alsim</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 7 сек.</t>
+    <t>1 ч. 55 мин. 07 сек.</t>
   </si>
   <si>
     <t>zilok5301</t>
@@ -5999,7 +5999,7 @@
     <t>ГОЧА</t>
   </si>
   <si>
-    <t>5 ч. 34 мин. 0 сек.</t>
+    <t>5 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>834–837</t>
@@ -6008,13 +6008,13 @@
     <t>Leyrus</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 32 сек.</t>
+    <t>1 ч. 00 мин. 32 сек.</t>
   </si>
   <si>
     <t>vitalya199529</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 0 сек.</t>
+    <t>1 ч. 03 мин. 00 сек.</t>
   </si>
   <si>
     <t>Les01</t>
@@ -6026,7 +6026,7 @@
     <t>Анетточка</t>
   </si>
   <si>
-    <t>3 ч. 21 мин. 1 сек.</t>
+    <t>3 ч. 21 мин. 01 сек.</t>
   </si>
   <si>
     <t>838–839</t>
@@ -6041,7 +6041,7 @@
     <t>AiDpiv</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 26 сек.</t>
+    <t>2 ч. 02 мин. 26 сек.</t>
   </si>
   <si>
     <t>840–841</t>
@@ -6065,7 +6065,7 @@
     <t>tinto</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 17 сек.</t>
+    <t>1 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>843–847</t>
@@ -6080,25 +6080,25 @@
     <t>Lexx345</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 42 сек.</t>
+    <t>1 ч. 03 мин. 42 сек.</t>
   </si>
   <si>
     <t>n1c3r</t>
   </si>
   <si>
-    <t>1 ч. 26 мин. 6 сек.</t>
+    <t>1 ч. 26 мин. 06 сек.</t>
   </si>
   <si>
     <t>smale</t>
   </si>
   <si>
-    <t>2 ч. 39 мин. 3 сек.</t>
+    <t>2 ч. 39 мин. 03 сек.</t>
   </si>
   <si>
     <t>OggyOne</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 11 сек.</t>
+    <t>5 ч. 08 мин. 11 сек.</t>
   </si>
   <si>
     <t>848–849</t>
@@ -6107,7 +6107,7 @@
     <t>FD70000000</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 42 сек.</t>
+    <t>2 ч. 00 мин. 42 сек.</t>
   </si>
   <si>
     <t>psv2014</t>
@@ -6122,7 +6122,7 @@
     <t>Viktor_Animal</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 19 сек.</t>
+    <t>1 ч. 04 мин. 19 сек.</t>
   </si>
   <si>
     <t>851–852</t>
@@ -6131,7 +6131,7 @@
     <t>napz</t>
   </si>
   <si>
-    <t>1 ч. 20 мин. 9 сек.</t>
+    <t>1 ч. 20 мин. 09 сек.</t>
   </si>
   <si>
     <t>8788</t>
@@ -6176,7 +6176,7 @@
     <t>osipetka</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 32 сек.</t>
+    <t>2 ч. 03 мин. 32 сек.</t>
   </si>
   <si>
     <t>858–859</t>
@@ -6200,7 +6200,7 @@
     <t>nokkze</t>
   </si>
   <si>
-    <t>0 ч. 42 мин. 4 сек.</t>
+    <t>0 ч. 42 мин. 04 сек.</t>
   </si>
   <si>
     <t>sp1d3y</t>
@@ -6227,7 +6227,7 @@
     <t>zzzsss</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 7 сек.</t>
+    <t>1 ч. 57 мин. 07 сек.</t>
   </si>
   <si>
     <t>pochti</t>
@@ -6320,7 +6320,7 @@
     <t>fncg32</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 16 сек.</t>
+    <t>1 ч. 07 мин. 16 сек.</t>
   </si>
   <si>
     <t>878–880</t>
@@ -6350,7 +6350,7 @@
     <t>kxinekton</t>
   </si>
   <si>
-    <t>1 ч. 20 мин. 1 сек.</t>
+    <t>1 ч. 20 мин. 01 сек.</t>
   </si>
   <si>
     <t>GlaVV</t>
@@ -6374,7 +6374,7 @@
     <t>Alukos</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 29 сек.</t>
+    <t>1 ч. 08 мин. 29 сек.</t>
   </si>
   <si>
     <t>инстинкт</t>
@@ -6395,7 +6395,7 @@
     <t>-Sid</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 8 сек.</t>
+    <t>1 ч. 01 мин. 08 сек.</t>
   </si>
   <si>
     <t>889–890</t>
@@ -6434,7 +6434,7 @@
     <t>bookSir</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 2 сек.</t>
+    <t>1 ч. 59 мин. 02 сек.</t>
   </si>
   <si>
     <t>yuki23</t>
@@ -6473,7 +6473,7 @@
     <t>ZverikK</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 1 сек.</t>
+    <t>2 ч. 01 мин. 01 сек.</t>
   </si>
   <si>
     <t>ras2223car</t>
@@ -6485,7 +6485,7 @@
     <t>Ampil</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 34 сек.</t>
+    <t>3 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>903–906</t>
@@ -6494,7 +6494,7 @@
     <t>Lyonov</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 8 сек.</t>
+    <t>1 ч. 27 мин. 08 сек.</t>
   </si>
   <si>
     <t>OhManIAmWorried</t>
@@ -6512,7 +6512,7 @@
     <t>Pikachu_Ha</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 9 сек.</t>
+    <t>2 ч. 16 мин. 09 сек.</t>
   </si>
   <si>
     <t>907–911</t>
@@ -6527,7 +6527,7 @@
     <t>новичок16</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 8 сек.</t>
+    <t>1 ч. 02 мин. 08 сек.</t>
   </si>
   <si>
     <t>Стасян1996</t>
@@ -6566,7 +6566,7 @@
     <t>phlegmone</t>
   </si>
   <si>
-    <t>5 ч. 25 мин. 7 сек.</t>
+    <t>5 ч. 25 мин. 07 сек.</t>
   </si>
   <si>
     <t>VladimirFvR</t>
@@ -6581,7 +6581,7 @@
     <t>MAXIMUSX</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 25 сек.</t>
+    <t>5 ч. 09 мин. 25 сек.</t>
   </si>
   <si>
     <t>917–923</t>
@@ -6605,7 +6605,7 @@
     <t>PetWussy</t>
   </si>
   <si>
-    <t>2 ч. 52 мин. 5 сек.</t>
+    <t>2 ч. 52 мин. 05 сек.</t>
   </si>
   <si>
     <t>CrazyCoder</t>
@@ -6617,7 +6617,7 @@
     <t>xdg-</t>
   </si>
   <si>
-    <t>8 ч. 27 мин. 1 сек.</t>
+    <t>8 ч. 27 мин. 01 сек.</t>
   </si>
   <si>
     <t>kenigrus</t>
@@ -6644,7 +6644,7 @@
     <t>denisov7</t>
   </si>
   <si>
-    <t>0 ч. 49 мин. 7 сек.</t>
+    <t>0 ч. 49 мин. 07 сек.</t>
   </si>
   <si>
     <t>royalynx</t>
@@ -6677,7 +6677,7 @@
     <t>viktor777s</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 34 сек.</t>
+    <t>1 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>lulaMay</t>
@@ -6743,7 +6743,7 @@
     <t>CTuKEP</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 36 сек.</t>
+    <t>2 ч. 02 мин. 36 сек.</t>
   </si>
   <si>
     <t>amdeluxe</t>
@@ -6809,13 +6809,13 @@
     <t>thomosyan</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 16 сек.</t>
+    <t>2 ч. 06 мин. 16 сек.</t>
   </si>
   <si>
     <t>Sofi15050888</t>
   </si>
   <si>
-    <t>3 ч. 36 мин. 1 сек.</t>
+    <t>3 ч. 36 мин. 01 сек.</t>
   </si>
   <si>
     <t>954–956</t>
@@ -6824,13 +6824,13 @@
     <t>JustTrain</t>
   </si>
   <si>
-    <t>1 ч. 13 мин. 5 сек.</t>
+    <t>1 ч. 13 мин. 05 сек.</t>
   </si>
   <si>
     <t>F0oocus</t>
   </si>
   <si>
-    <t>11 ч. 0 мин. 34 сек.</t>
+    <t>11 ч. 00 мин. 34 сек.</t>
   </si>
   <si>
     <t>Картониик</t>
@@ -6884,13 +6884,13 @@
     <t>boxfrommars</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 54 сек.</t>
+    <t>1 ч. 04 мин. 54 сек.</t>
   </si>
   <si>
     <t>NineFingers</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 3 сек.</t>
+    <t>2 ч. 24 мин. 03 сек.</t>
   </si>
   <si>
     <t>karalina</t>
@@ -6923,7 +6923,7 @@
     <t>svoemesto</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 14 сек.</t>
+    <t>1 ч. 08 мин. 14 сек.</t>
   </si>
   <si>
     <t>Fierra</t>
@@ -6983,7 +6983,7 @@
     <t>coffee_machine</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 3 сек.</t>
+    <t>1 ч. 57 мин. 03 сек.</t>
   </si>
   <si>
     <t>нуммулит</t>
@@ -7004,7 +7004,7 @@
     <t>Wedgewood</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 59 сек.</t>
+    <t>1 ч. 08 мин. 59 сек.</t>
   </si>
   <si>
     <t>Zettabyte</t>
@@ -7031,7 +7031,7 @@
     <t>PVV</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 28 сек.</t>
+    <t>2 ч. 04 мин. 28 сек.</t>
   </si>
   <si>
     <t>daxundaintravel</t>
@@ -7055,7 +7055,7 @@
     <t>AlexKlav</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 46 сек.</t>
+    <t>1 ч. 03 мин. 46 сек.</t>
   </si>
   <si>
     <t>Clever_Ren</t>
@@ -7115,7 +7115,7 @@
     <t>Serpets</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 35 сек.</t>
+    <t>1 ч. 03 мин. 35 сек.</t>
   </si>
   <si>
     <t>kotey</t>
@@ -7130,7 +7130,7 @@
     <t>Shivaki</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 5 сек.</t>
+    <t>2 ч. 04 мин. 05 сек.</t>
   </si>
   <si>
     <t>smokesss</t>
@@ -7148,7 +7148,7 @@
     <t>Яня</t>
   </si>
   <si>
-    <t>3 ч. 48 мин. 7 сек.</t>
+    <t>3 ч. 48 мин. 07 сек.</t>
   </si>
   <si>
     <t>1003–1009</t>
@@ -7157,7 +7157,7 @@
     <t>anialPro</t>
   </si>
   <si>
-    <t>0 ч. 48 мин. 7 сек.</t>
+    <t>0 ч. 48 мин. 07 сек.</t>
   </si>
   <si>
     <t>ji411</t>
@@ -7247,13 +7247,13 @@
     <t>pushka_589889</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 14 сек.</t>
+    <t>1 ч. 00 мин. 14 сек.</t>
   </si>
   <si>
     <t>Khasanchik</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 33 сек.</t>
+    <t>1 ч. 02 мин. 33 сек.</t>
   </si>
   <si>
     <t>Igem</t>
@@ -7268,7 +7268,7 @@
     <t>fedor229</t>
   </si>
   <si>
-    <t>1 ч. 37 мин. 9 сек.</t>
+    <t>1 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>fu11buster</t>
@@ -7316,13 +7316,13 @@
     <t>tws</t>
   </si>
   <si>
-    <t>0 ч. 48 мин. 8 сек.</t>
+    <t>0 ч. 48 мин. 08 сек.</t>
   </si>
   <si>
     <t>nikbstar</t>
   </si>
   <si>
-    <t>1 ч. 10 мин. 6 сек.</t>
+    <t>1 ч. 10 мин. 06 сек.</t>
   </si>
   <si>
     <t>xlleb</t>
@@ -7334,13 +7334,13 @@
     <t>ollu</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 43 сек.</t>
+    <t>3 ч. 07 мин. 43 сек.</t>
   </si>
   <si>
     <t>kleshna</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 59 сек.</t>
+    <t>7 ч. 00 мин. 59 сек.</t>
   </si>
   <si>
     <t>1033–1040</t>
@@ -7355,7 +7355,7 @@
     <t>Ultinmate</t>
   </si>
   <si>
-    <t>0 ч. 52 мин. 0 сек.</t>
+    <t>0 ч. 52 мин. 00 сек.</t>
   </si>
   <si>
     <t>MrOleg</t>
@@ -7370,19 +7370,19 @@
     <t>xifiwejod</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 11 сек.</t>
+    <t>2 ч. 09 мин. 11 сек.</t>
   </si>
   <si>
     <t>stay_strong</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 52 сек.</t>
+    <t>2 ч. 04 мин. 52 сек.</t>
   </si>
   <si>
     <t>fishca</t>
   </si>
   <si>
-    <t>6 ч. 33 мин. 4 сек.</t>
+    <t>6 ч. 33 мин. 04 сек.</t>
   </si>
   <si>
     <t>YARIK7</t>
@@ -7439,13 +7439,13 @@
     <t>OlegChek</t>
   </si>
   <si>
-    <t>1 ч. 35 мин. 9 сек.</t>
+    <t>1 ч. 35 мин. 09 сек.</t>
   </si>
   <si>
     <t>novax</t>
   </si>
   <si>
-    <t>2 ч. 51 мин. 5 сек.</t>
+    <t>2 ч. 51 мин. 05 сек.</t>
   </si>
   <si>
     <t>kitlod</t>
@@ -7475,7 +7475,7 @@
     <t>apchhi</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 12 сек.</t>
+    <t>1 ч. 06 мин. 12 сек.</t>
   </si>
   <si>
     <t>nxoig</t>
@@ -7502,19 +7502,19 @@
     <t>AlexFox</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 27 сек.</t>
+    <t>1 ч. 05 мин. 27 сек.</t>
   </si>
   <si>
     <t>ja_ja_banx</t>
   </si>
   <si>
-    <t>0 ч. 55 мин. 6 сек.</t>
+    <t>0 ч. 55 мин. 06 сек.</t>
   </si>
   <si>
     <t>FICHAS</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 45 сек.</t>
+    <t>1 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>Pug</t>
@@ -7526,7 +7526,7 @@
     <t>Атата</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 1 сек.</t>
+    <t>2 ч. 03 мин. 01 сек.</t>
   </si>
   <si>
     <t>AnArda</t>
@@ -7550,7 +7550,7 @@
     <t>AG1</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 55 сек.</t>
+    <t>2 ч. 01 мин. 55 сек.</t>
   </si>
   <si>
     <t>1066–1067</t>
@@ -7559,7 +7559,7 @@
     <t>golyj_jozhik</t>
   </si>
   <si>
-    <t>0 ч. 53 мин. 4 сек.</t>
+    <t>0 ч. 53 мин. 04 сек.</t>
   </si>
   <si>
     <t>pl_yoko</t>
@@ -7586,13 +7586,13 @@
     <t>Хуля</t>
   </si>
   <si>
-    <t>2 ч. 38 мин. 4 сек.</t>
+    <t>2 ч. 38 мин. 04 сек.</t>
   </si>
   <si>
     <t>omaraga</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 39 сек.</t>
+    <t>4 ч. 08 мин. 39 сек.</t>
   </si>
   <si>
     <t>1072</t>
@@ -7643,7 +7643,7 @@
     <t>NoX111</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 59 сек.</t>
+    <t>3 ч. 02 мин. 59 сек.</t>
   </si>
   <si>
     <t>1079–1081</t>
@@ -7673,7 +7673,7 @@
     <t>salivan1995</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 9 сек.</t>
+    <t>1 ч. 24 мин. 09 сек.</t>
   </si>
   <si>
     <t>dumb</t>
@@ -7706,7 +7706,7 @@
     <t>godmim</t>
   </si>
   <si>
-    <t>0 ч. 47 мин. 5 сек.</t>
+    <t>0 ч. 47 мин. 05 сек.</t>
   </si>
   <si>
     <t>Viacheslav_Kras</t>
@@ -7715,7 +7715,7 @@
     <t>nowhere_man</t>
   </si>
   <si>
-    <t>0 ч. 49 мин. 8 сек.</t>
+    <t>0 ч. 49 мин. 08 сек.</t>
   </si>
   <si>
     <t>eksdak</t>
@@ -7772,7 +7772,7 @@
     <t>КВАКША</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 24 сек.</t>
+    <t>2 ч. 05 мин. 24 сек.</t>
   </si>
   <si>
     <t>1100–1104</t>
@@ -7802,7 +7802,7 @@
     <t>angeldeath29</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 28 сек.</t>
+    <t>3 ч. 05 мин. 28 сек.</t>
   </si>
   <si>
     <t>1105</t>
@@ -7820,7 +7820,7 @@
     <t>ЕРГ</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 53 сек.</t>
+    <t>1 ч. 09 мин. 53 сек.</t>
   </si>
   <si>
     <t>Frankuj</t>
@@ -7850,7 +7850,7 @@
     <t>nardist01</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 7 сек.</t>
+    <t>6 ч. 00 мин. 07 сек.</t>
   </si>
   <si>
     <t>1112–1114</t>
@@ -7868,7 +7868,7 @@
     <t>LADA220876</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 24 сек.</t>
+    <t>2 ч. 00 мин. 24 сек.</t>
   </si>
   <si>
     <t>1115–1121</t>
@@ -7877,7 +7877,7 @@
     <t>smith-</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 21 сек.</t>
+    <t>1 ч. 09 мин. 21 сек.</t>
   </si>
   <si>
     <t>milyasow</t>
@@ -7889,13 +7889,13 @@
     <t>Bacardi333</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 10 сек.</t>
+    <t>1 ч. 05 мин. 10 сек.</t>
   </si>
   <si>
     <t>fshark</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 48 сек.</t>
+    <t>1 ч. 02 мин. 48 сек.</t>
   </si>
   <si>
     <t>feroxprox</t>
@@ -7940,19 +7940,19 @@
     <t>SectuSempra</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 49 сек.</t>
+    <t>2 ч. 05 мин. 49 сек.</t>
   </si>
   <si>
     <t>alexandr-ftf</t>
   </si>
   <si>
-    <t>1 ч. 54 мин. 8 сек.</t>
+    <t>1 ч. 54 мин. 08 сек.</t>
   </si>
   <si>
     <t>Galebickosikasa</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 36 сек.</t>
+    <t>2 ч. 07 мин. 36 сек.</t>
   </si>
   <si>
     <t>evhen010693</t>
@@ -7979,7 +7979,7 @@
     <t>David_96</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 57 сек.</t>
+    <t>5 ч. 09 мин. 57 сек.</t>
   </si>
   <si>
     <t>pavlikzajblik</t>
@@ -7994,7 +7994,7 @@
     <t>Мелитина</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 2 сек.</t>
+    <t>1 ч. 27 мин. 02 сек.</t>
   </si>
   <si>
     <t>f0rtuna</t>
@@ -8021,7 +8021,7 @@
     <t>MachoMaNNN</t>
   </si>
   <si>
-    <t>3 ч. 16 мин. 7 сек.</t>
+    <t>3 ч. 16 мин. 07 сек.</t>
   </si>
   <si>
     <t>Daniil142</t>
@@ -8033,7 +8033,7 @@
     <t>MindaL</t>
   </si>
   <si>
-    <t>7 ч. 9 мин. 16 сек.</t>
+    <t>7 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>1140–1142</t>
@@ -8048,7 +8048,7 @@
     <t>pblk</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 2 сек.</t>
+    <t>2 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>rapiru</t>
@@ -8069,7 +8069,7 @@
     <t>Интересующийся</t>
   </si>
   <si>
-    <t>8 ч. 42 мин. 2 сек.</t>
+    <t>8 ч. 42 мин. 02 сек.</t>
   </si>
   <si>
     <t>1145–1148</t>
@@ -8078,7 +8078,7 @@
     <t>ShornDevil</t>
   </si>
   <si>
-    <t>0 ч. 46 мин. 5 сек.</t>
+    <t>0 ч. 46 мин. 05 сек.</t>
   </si>
   <si>
     <t>motarokl</t>
@@ -8147,7 +8147,7 @@
     <t>lana-banana</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 46 сек.</t>
+    <t>1 ч. 01 мин. 46 сек.</t>
   </si>
   <si>
     <t>PetrAlex74</t>
@@ -8165,7 +8165,7 @@
     <t>spirit2</t>
   </si>
   <si>
-    <t>2 ч. 47 мин. 1 сек.</t>
+    <t>2 ч. 47 мин. 01 сек.</t>
   </si>
   <si>
     <t>1160</t>
@@ -8174,7 +8174,7 @@
     <t>bukasashka</t>
   </si>
   <si>
-    <t>2 ч. 40 мин. 3 сек.</t>
+    <t>2 ч. 40 мин. 03 сек.</t>
   </si>
   <si>
     <t>1161–1165</t>
@@ -8183,7 +8183,7 @@
     <t>Cinapc</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 19 сек.</t>
+    <t>1 ч. 05 мин. 19 сек.</t>
   </si>
   <si>
     <t>Аурика</t>
@@ -8225,7 +8225,7 @@
     <t>Dilfa</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 34 сек.</t>
+    <t>2 ч. 08 мин. 34 сек.</t>
   </si>
   <si>
     <t>Booblik6554645</t>
@@ -8246,13 +8246,13 @@
     <t>Murad_Kips</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 26 сек.</t>
+    <t>6 ч. 00 мин. 26 сек.</t>
   </si>
   <si>
     <t>sashokcool</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 42 сек.</t>
+    <t>5 ч. 01 мин. 42 сек.</t>
   </si>
   <si>
     <t>sash_ok74</t>
@@ -8276,7 +8276,7 @@
     <t>nikpom</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 16 сек.</t>
+    <t>1 ч. 02 мин. 16 сек.</t>
   </si>
   <si>
     <t>1176</t>
@@ -8300,7 +8300,7 @@
     <t>Bulo4kasmyasom</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 4 сек.</t>
+    <t>2 ч. 09 мин. 04 сек.</t>
   </si>
   <si>
     <t>Денис3аыпп</t>
@@ -8312,7 +8312,7 @@
     <t>xthh</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 51 сек.</t>
+    <t>2 ч. 09 мин. 51 сек.</t>
   </si>
   <si>
     <t>kukhmax</t>
@@ -8330,7 +8330,7 @@
     <t>nuvvse</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 3 сек.</t>
+    <t>4 ч. 09 мин. 03 сек.</t>
   </si>
   <si>
     <t>Sanjoksan</t>
@@ -8345,7 +8345,7 @@
     <t>Napoli</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 30 сек.</t>
+    <t>1 ч. 03 мин. 30 сек.</t>
   </si>
   <si>
     <t>ge333</t>
@@ -8372,7 +8372,7 @@
     <t>karpeka</t>
   </si>
   <si>
-    <t>1 ч. 31 мин. 1 сек.</t>
+    <t>1 ч. 31 мин. 01 сек.</t>
   </si>
   <si>
     <t>badcoderspaik</t>
@@ -8414,13 +8414,13 @@
     <t>Almazka</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 12 сек.</t>
+    <t>1 ч. 04 мин. 12 сек.</t>
   </si>
   <si>
     <t>Player2SE</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 26 сек.</t>
+    <t>1 ч. 02 мин. 26 сек.</t>
   </si>
   <si>
     <t>aedus</t>
@@ -8453,7 +8453,7 @@
     <t>BLACK_RAMA</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 46 сек.</t>
+    <t>1 ч. 05 мин. 46 сек.</t>
   </si>
   <si>
     <t>bronikkk</t>
@@ -8513,7 +8513,7 @@
     <t>AleksNormal2012</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 43 сек.</t>
+    <t>1 ч. 01 мин. 43 сек.</t>
   </si>
   <si>
     <t>maestro2809</t>
@@ -8570,7 +8570,7 @@
     <t>Jamie_Randall</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 36 сек.</t>
+    <t>6 ч. 00 мин. 36 сек.</t>
   </si>
   <si>
     <t>che711test</t>
@@ -8585,13 +8585,13 @@
     <t>Zephir</t>
   </si>
   <si>
-    <t>0 ч. 58 мин. 6 сек.</t>
+    <t>0 ч. 58 мин. 06 сек.</t>
   </si>
   <si>
     <t>PelmeniEnshtein</t>
   </si>
   <si>
-    <t>1 ч. 35 мин. 0 сек.</t>
+    <t>1 ч. 35 мин. 00 сек.</t>
   </si>
   <si>
     <t>1222–1223</t>
@@ -8600,7 +8600,7 @@
     <t>kurtyaxa</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 10 сек.</t>
+    <t>1 ч. 08 мин. 10 сек.</t>
   </si>
   <si>
     <t>RaZZeRs</t>
@@ -8615,7 +8615,7 @@
     <t>yapoehal</t>
   </si>
   <si>
-    <t>2 ч. 52 мин. 0 сек.</t>
+    <t>2 ч. 52 мин. 00 сек.</t>
   </si>
   <si>
     <t>1225–1227</t>
@@ -8624,7 +8624,7 @@
     <t>Берегиня</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 44 сек.</t>
+    <t>1 ч. 00 мин. 44 сек.</t>
   </si>
   <si>
     <t>Lena-51</t>
@@ -8672,7 +8672,7 @@
     <t>x-sakaev</t>
   </si>
   <si>
-    <t>6 ч. 5 мин. 51 сек.</t>
+    <t>6 ч. 05 мин. 51 сек.</t>
   </si>
   <si>
     <t>1233–1235</t>
@@ -8681,13 +8681,13 @@
     <t>jhop</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 12 сек.</t>
+    <t>2 ч. 04 мин. 12 сек.</t>
   </si>
   <si>
     <t>drool</t>
   </si>
   <si>
-    <t>4 ч. 24 мин. 0 сек.</t>
+    <t>4 ч. 24 мин. 00 сек.</t>
   </si>
   <si>
     <t>superdub</t>
@@ -8708,7 +8708,7 @@
     <t>Shikari_</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 29 сек.</t>
+    <t>2 ч. 02 мин. 29 сек.</t>
   </si>
   <si>
     <t>lefruitit</t>
@@ -8729,7 +8729,7 @@
     <t>for2ne</t>
   </si>
   <si>
-    <t>1 ч. 39 мин. 3 сек.</t>
+    <t>1 ч. 39 мин. 03 сек.</t>
   </si>
   <si>
     <t>1241</t>
@@ -8771,7 +8771,7 @@
     <t>Mansur_</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 56 сек.</t>
+    <t>2 ч. 02 мин. 56 сек.</t>
   </si>
   <si>
     <t>1246</t>
@@ -8816,7 +8816,7 @@
     <t>nakl</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 14 сек.</t>
+    <t>2 ч. 03 мин. 14 сек.</t>
   </si>
   <si>
     <t>Kostia_Dobro</t>
@@ -8840,7 +8840,7 @@
     <t>Scarface82</t>
   </si>
   <si>
-    <t>4 ч. 20 мин. 9 сек.</t>
+    <t>4 ч. 20 мин. 09 сек.</t>
   </si>
   <si>
     <t>CoolJohn</t>
@@ -8855,7 +8855,7 @@
     <t>2020OK</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 9 сек.</t>
+    <t>1 ч. 21 мин. 09 сек.</t>
   </si>
   <si>
     <t>985ann</t>
@@ -8903,7 +8903,7 @@
     <t>vasya555</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 28 сек.</t>
+    <t>2 ч. 06 мин. 28 сек.</t>
   </si>
   <si>
     <t>starwar</t>
@@ -8918,7 +8918,7 @@
     <t>Mindal2</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 17 сек.</t>
+    <t>1 ч. 07 мин. 17 сек.</t>
   </si>
   <si>
     <t>1267–1268</t>
@@ -8960,7 +8960,7 @@
     <t>Cevorodis</t>
   </si>
   <si>
-    <t>4 ч. 10 мин. 7 сек.</t>
+    <t>4 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>1273–1275</t>
@@ -8990,7 +8990,7 @@
     <t>вомбат</t>
   </si>
   <si>
-    <t>0 ч. 51 мин. 8 сек.</t>
+    <t>0 ч. 51 мин. 08 сек.</t>
   </si>
   <si>
     <t>nolirit</t>
@@ -9017,7 +9017,7 @@
     <t>89514105226</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 44 сек.</t>
+    <t>4 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>1281–1282</t>
@@ -9086,7 +9086,7 @@
     <t>Кошечка33</t>
   </si>
   <si>
-    <t>19 ч. 41 мин. 7 сек.</t>
+    <t>19 ч. 41 мин. 07 сек.</t>
   </si>
   <si>
     <t>1290–1291</t>
@@ -9101,7 +9101,7 @@
     <t>shiroman</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 26 сек.</t>
+    <t>4 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>1292–1294</t>
@@ -9116,13 +9116,13 @@
     <t>xetd71</t>
   </si>
   <si>
-    <t>3 ч. 10 мин. 8 сек.</t>
+    <t>3 ч. 10 мин. 08 сек.</t>
   </si>
   <si>
     <t>Библиотека</t>
   </si>
   <si>
-    <t>3 ч. 13 мин. 3 сек.</t>
+    <t>3 ч. 13 мин. 03 сек.</t>
   </si>
   <si>
     <t>1295–1297</t>
@@ -9137,7 +9137,7 @@
     <t>holysheep</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 43 сек.</t>
+    <t>2 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>Daria_B</t>
@@ -9152,7 +9152,7 @@
     <t>Coreee4</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 36 сек.</t>
+    <t>1 ч. 02 мин. 36 сек.</t>
   </si>
   <si>
     <t>1299–1300</t>
@@ -9176,7 +9176,7 @@
     <t>artemsan15</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 44 сек.</t>
+    <t>1 ч. 02 мин. 44 сек.</t>
   </si>
   <si>
     <t>CarэTa</t>
@@ -9206,7 +9206,7 @@
     <t>tytylik</t>
   </si>
   <si>
-    <t>1 ч. 16 мин. 4 сек.</t>
+    <t>1 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>alecspb98</t>
@@ -9236,7 +9236,7 @@
     <t>Jelik</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 58 сек.</t>
+    <t>1 ч. 09 мин. 58 сек.</t>
   </si>
   <si>
     <t>Ваоер</t>
@@ -9248,7 +9248,7 @@
     <t>semenkorolev</t>
   </si>
   <si>
-    <t>2 ч. 49 мин. 3 сек.</t>
+    <t>2 ч. 49 мин. 03 сек.</t>
   </si>
   <si>
     <t>alaga</t>
@@ -9269,7 +9269,7 @@
     <t>maxim1993</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 9 сек.</t>
+    <t>1 ч. 36 мин. 09 сек.</t>
   </si>
   <si>
     <t>RauleR</t>
@@ -9281,7 +9281,7 @@
     <t>Rad1</t>
   </si>
   <si>
-    <t>5 ч. 19 мин. 8 сек.</t>
+    <t>5 ч. 19 мин. 08 сек.</t>
   </si>
   <si>
     <t>1317</t>
@@ -9290,7 +9290,7 @@
     <t>petrochen</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 21 сек.</t>
+    <t>2 ч. 02 мин. 21 сек.</t>
   </si>
   <si>
     <t>1318</t>
@@ -9314,7 +9314,7 @@
     <t>blitz_en</t>
   </si>
   <si>
-    <t>4 ч. 38 мин. 1 сек.</t>
+    <t>4 ч. 38 мин. 01 сек.</t>
   </si>
   <si>
     <t>1321</t>
@@ -9332,13 +9332,13 @@
     <t>tanyaret</t>
   </si>
   <si>
-    <t>1 ч. 18 мин. 6 сек.</t>
+    <t>1 ч. 18 мин. 06 сек.</t>
   </si>
   <si>
     <t>one85two</t>
   </si>
   <si>
-    <t>1 ч. 37 мин. 6 сек.</t>
+    <t>1 ч. 37 мин. 06 сек.</t>
   </si>
   <si>
     <t>grenkoff</t>
@@ -9446,7 +9446,7 @@
     <t>annv</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 26 сек.</t>
+    <t>2 ч. 01 мин. 26 сек.</t>
   </si>
   <si>
     <t>1338–1339</t>
@@ -9518,7 +9518,7 @@
     <t>Anatoly79</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 6 сек.</t>
+    <t>1 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>tom_drake</t>
@@ -9590,7 +9590,7 @@
     <t>Redkalee</t>
   </si>
   <si>
-    <t>24 ч. 2 мин. 16 сек.</t>
+    <t>24 ч. 02 мин. 16 сек.</t>
   </si>
   <si>
     <t>1357–1358</t>
@@ -9605,7 +9605,7 @@
     <t>Desin</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 1 сек.</t>
+    <t>2 ч. 29 мин. 01 сек.</t>
   </si>
   <si>
     <t>1359</t>
@@ -9656,13 +9656,13 @@
     <t>iguanaz</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 47 сек.</t>
+    <t>2 ч. 09 мин. 47 сек.</t>
   </si>
   <si>
     <t>Kettu</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 57 сек.</t>
+    <t>3 ч. 04 мин. 57 сек.</t>
   </si>
   <si>
     <t>1367</t>
@@ -9695,7 +9695,7 @@
     <t>forward-ok</t>
   </si>
   <si>
-    <t>1 ч. 32 мин. 6 сек.</t>
+    <t>1 ч. 32 мин. 06 сек.</t>
   </si>
   <si>
     <t>garlin23</t>
@@ -9731,7 +9731,7 @@
     <t>SkiperUA</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 35 сек.</t>
+    <t>3 ч. 06 мин. 35 сек.</t>
   </si>
   <si>
     <t>NektoN</t>
@@ -9743,7 +9743,7 @@
     <t>monetka</t>
   </si>
   <si>
-    <t>3 ч. 16 мин. 6 сек.</t>
+    <t>3 ч. 16 мин. 06 сек.</t>
   </si>
   <si>
     <t>1378</t>
@@ -9761,7 +9761,7 @@
     <t>shuko</t>
   </si>
   <si>
-    <t>2 ч. 39 мин. 4 сек.</t>
+    <t>2 ч. 39 мин. 04 сек.</t>
   </si>
   <si>
     <t>40-in</t>
@@ -9776,13 +9776,13 @@
     <t>badik123</t>
   </si>
   <si>
-    <t>3 ч. 51 мин. 6 сек.</t>
+    <t>3 ч. 51 мин. 06 сек.</t>
   </si>
   <si>
     <t>Quadrivium</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 51 сек.</t>
+    <t>2 ч. 06 мин. 51 сек.</t>
   </si>
   <si>
     <t>Abdulaziz_2007</t>
@@ -9806,7 +9806,7 @@
     <t>Адиль777</t>
   </si>
   <si>
-    <t>2 ч. 37 мин. 4 сек.</t>
+    <t>2 ч. 37 мин. 04 сек.</t>
   </si>
   <si>
     <t>TARAKANAS</t>
@@ -9821,7 +9821,7 @@
     <t>bremsen</t>
   </si>
   <si>
-    <t>1 ч. 49 мин. 4 сек.</t>
+    <t>1 ч. 49 мин. 04 сек.</t>
   </si>
   <si>
     <t>1388</t>
@@ -9854,7 +9854,7 @@
     <t>baalexxx</t>
   </si>
   <si>
-    <t>3 ч. 15 мин. 9 сек.</t>
+    <t>3 ч. 15 мин. 09 сек.</t>
   </si>
   <si>
     <t>1392–1393</t>
@@ -9863,7 +9863,7 @@
     <t>Jellyfishka</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 1 сек.</t>
+    <t>1 ч. 57 мин. 01 сек.</t>
   </si>
   <si>
     <t>St58047</t>
@@ -9878,7 +9878,7 @@
     <t>МакарМуратов</t>
   </si>
   <si>
-    <t>8 ч. 1 мин. 26 сек.</t>
+    <t>8 ч. 01 мин. 26 сек.</t>
   </si>
   <si>
     <t>1395</t>
@@ -9887,7 +9887,7 @@
     <t>Ukr_Top</t>
   </si>
   <si>
-    <t>1 ч. 45 мин. 7 сек.</t>
+    <t>1 ч. 45 мин. 07 сек.</t>
   </si>
   <si>
     <t>1396</t>
@@ -9905,7 +9905,7 @@
     <t>bakytbek007</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 58 сек.</t>
+    <t>2 ч. 02 мин. 58 сек.</t>
   </si>
   <si>
     <t>Pavel954</t>
@@ -9920,7 +9920,7 @@
     <t>Headbug</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 38 сек.</t>
+    <t>2 ч. 04 мин. 38 сек.</t>
   </si>
   <si>
     <t>chernyshov_ip</t>
@@ -9980,7 +9980,7 @@
     <t>zhanna_zzz</t>
   </si>
   <si>
-    <t>8 ч. 52 мин. 6 сек.</t>
+    <t>8 ч. 52 мин. 06 сек.</t>
   </si>
   <si>
     <t>1408</t>
@@ -10100,7 +10100,7 @@
     <t>Cinnamon88</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 58 сек.</t>
+    <t>3 ч. 04 мин. 58 сек.</t>
   </si>
   <si>
     <t>1422</t>
